--- a/Final System/Regression_Results.xlsx
+++ b/Final System/Regression_Results.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingshisun/Desktop/CS586TextMining/Codalab_Mine/Our_System/logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingshisun/Desktop/CS586TextMining/Github/TwitterEmotionIntensity/Final System/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="4540" windowWidth="30000" windowHeight="19380"/>
+    <workbookView xWindow="3380" yWindow="2480" windowWidth="29460" windowHeight="17400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Evaluation Results" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
